--- a/mMonitoreoTeoricos/formatos/importador ropa.xlsx
+++ b/mMonitoreoTeoricos/formatos/importador ropa.xlsx
@@ -1,64 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\AGalindo\RESPALDO\IMPORTADORES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C573E73-11DB-4E11-8649-A7F07979968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importador" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>LISTA</t>
-  </si>
-  <si>
-    <t>752944</t>
-  </si>
-  <si>
-    <t>752946</t>
-  </si>
-  <si>
-    <t>752947</t>
-  </si>
-  <si>
-    <t>760095</t>
-  </si>
-  <si>
-    <t>760097</t>
-  </si>
-  <si>
-    <t>760170</t>
-  </si>
-  <si>
-    <t>760171</t>
-  </si>
-  <si>
-    <t>760226</t>
-  </si>
-  <si>
-    <t>760227</t>
-  </si>
-  <si>
-    <t>760228</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>ClaveArticulo</t>
+  </si>
+  <si>
+    <t>760203</t>
+  </si>
+  <si>
+    <t>760204</t>
+  </si>
+  <si>
+    <t>760206</t>
+  </si>
+  <si>
+    <t>760290</t>
+  </si>
+  <si>
+    <t>760291</t>
+  </si>
+  <si>
+    <t>760295</t>
+  </si>
+  <si>
+    <t>760297</t>
+  </si>
+  <si>
+    <t>760194</t>
+  </si>
+  <si>
+    <t>760365</t>
+  </si>
+  <si>
+    <t>760366</t>
+  </si>
+  <si>
+    <t>760372</t>
+  </si>
+  <si>
+    <t>760373</t>
+  </si>
+  <si>
+    <t>760381</t>
+  </si>
+  <si>
+    <t>760382</t>
+  </si>
+  <si>
+    <t>760383</t>
+  </si>
+  <si>
+    <t>760385</t>
+  </si>
+  <si>
+    <t>760386</t>
+  </si>
+  <si>
+    <t>760387</t>
+  </si>
+  <si>
+    <t>760389</t>
+  </si>
+  <si>
+    <t>760335</t>
+  </si>
+  <si>
+    <t>760336</t>
+  </si>
+  <si>
+    <t>760337</t>
+  </si>
+  <si>
+    <t>760338</t>
+  </si>
+  <si>
+    <t>760334</t>
+  </si>
+  <si>
+    <t>760339</t>
+  </si>
+  <si>
+    <t>760340</t>
+  </si>
+  <si>
+    <t>760341</t>
+  </si>
+  <si>
+    <t>760342</t>
+  </si>
+  <si>
+    <t>760360</t>
+  </si>
+  <si>
+    <t>760361</t>
+  </si>
+  <si>
+    <t>760362</t>
+  </si>
+  <si>
+    <t>760363</t>
+  </si>
+  <si>
+    <t>760364</t>
+  </si>
+  <si>
+    <t>760393</t>
+  </si>
+  <si>
+    <t>760394</t>
+  </si>
+  <si>
+    <t>760395</t>
+  </si>
+  <si>
+    <t>760368</t>
+  </si>
+  <si>
+    <t>760369</t>
+  </si>
+  <si>
+    <t>760370</t>
+  </si>
+  <si>
+    <t>760371</t>
+  </si>
+  <si>
+    <t>760374</t>
+  </si>
+  <si>
+    <t>760375</t>
+  </si>
+  <si>
+    <t>760379</t>
+  </si>
+  <si>
+    <t>760380</t>
+  </si>
+  <si>
+    <t>760388</t>
+  </si>
+  <si>
+    <t>760391</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,19 +185,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -92,54 +253,131 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Moneda 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -152,8 +390,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A289" totalsRowShown="0" dataDxfId="1">
+  <autoFilter ref="A1:A289" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ClaveArticulo" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,44 +411,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -227,32 +475,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,24 +509,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -308,160 +520,184 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A242"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -516,700 +752,922 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
+      <c r="A135" s="2"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
+      <c r="A142" s="2"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
+      <c r="A143" s="2"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
+      <c r="A144" s="2"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
+      <c r="A145" s="2"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
+      <c r="A147" s="2"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
+      <c r="A149" s="2"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
+      <c r="A150" s="2"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
+      <c r="A151" s="2"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
+      <c r="A154" s="2"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6"/>
+      <c r="A155" s="2"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
+      <c r="A156" s="2"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
+      <c r="A157" s="2"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
+      <c r="A158" s="2"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6"/>
+      <c r="A159" s="2"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
+      <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
+      <c r="A161" s="2"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6"/>
+      <c r="A162" s="2"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6"/>
+      <c r="A163" s="2"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6"/>
+      <c r="A164" s="2"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6"/>
+      <c r="A165" s="2"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6"/>
+      <c r="A166" s="2"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6"/>
+      <c r="A167" s="2"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
+      <c r="A168" s="2"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="6"/>
+      <c r="A169" s="2"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6"/>
+      <c r="A170" s="2"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
+      <c r="A171" s="2"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
+      <c r="A172" s="2"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
+      <c r="A173" s="2"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
+      <c r="A174" s="2"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
+      <c r="A175" s="2"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
+      <c r="A176" s="2"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
+      <c r="A177" s="2"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <protectedRanges>
+    <protectedRange sqref="A19:A21 A25:A27" name="Rango1"/>
+  </protectedRanges>
+  <conditionalFormatting sqref="A2:A289">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>